--- a/medicine/Pharmacie/Céfuroxime/Céfuroxime.xlsx
+++ b/medicine/Pharmacie/Céfuroxime/Céfuroxime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9furoxime</t>
+          <t>Céfuroxime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La céfuroxime est un antibiotique de la seconde génération des céphalosporines, très utilisée sous le nom de Ceftin aux États-Unis depuis 1977. GlaxoSmithKline vend cet antibiotique au Royaume-Uni, en Australie, en Turquie, en Israël, au Bangladesh, en Thaïlande et en Pologne sous le nom de Zinnat[2].
+La céfuroxime est un antibiotique de la seconde génération des céphalosporines, très utilisée sous le nom de Ceftin aux États-Unis depuis 1977. GlaxoSmithKline vend cet antibiotique au Royaume-Uni, en Australie, en Turquie, en Israël, au Bangladesh, en Thaïlande et en Pologne sous le nom de Zinnat.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9furoxime</t>
+          <t>Céfuroxime</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La céfuroxime inhibe la protéine de liaison aux pénicillines (en) (PLP), enzyme permettant la synthèse du peptidoglycane bactérien.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9furoxime</t>
+          <t>Céfuroxime</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Spécialité contenant de la céfuroxime</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>APROKAM
 U-CEF
